--- a/pred_ohlcv/54_21/2020-01-14 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>704.6703000000016</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>684.6705000000015</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>709.1147000000016</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1464.914800000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2588.943300000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1698.552200000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1508.330100000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1373.108000000002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5371.869900000002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>5580.812700000001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4135.484700000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4135.484700000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4057.373600000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4081.817800000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>4091.928800000001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4083.04</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4083.04</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4083.04</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4083.04</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4024.04</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4238.3005</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4213.1899</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3949.1897</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3953.6341</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3949.4119</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3951.4118</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3949.1795</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3949.1795</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3947.1796</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3945.0685</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6719.210000000001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>17007.32496288</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-979037.0500763999</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-976216.3454763999</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-976202.6856403399</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-976205.6856403399</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-976205.6856403399</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-976205.6856403399</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-978846.25464871</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-987661.91210086</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-987643.77332535</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-988328.37512535</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-987328.37512535</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-971985.91730942</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-977003.74740942</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-972604.29030942</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-986525.7210094199</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-989903.0243094199</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-989900.98260942</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-990133.3407094199</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-989800.5167094199</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-989800.5167094199</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-987325.2968094199</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-987325.2968094199</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-988573.7233094199</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-989052.5846094199</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-955859.3730094199</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-963358.1435094199</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-909854.3672094198</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>704.6703000000016</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>684.6705000000015</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>709.1147000000016</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1464.914800000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2588.943300000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1698.552200000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1508.330100000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1373.108000000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5371.869900000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>5580.812700000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>4135.484700000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4135.484700000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4057.373600000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4081.817800000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>4091.928800000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4083.04</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4083.04</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>4083.04</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4083.04</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4024.04</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>4238.3005</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>4213.1899</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3988.8562</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3949.1897</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3953.6341</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3949.4119</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3951.4118</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3949.1795</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3949.1795</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3947.1796</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3945.0685</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6719.210000000001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2811.221099999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2371.372300000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2129.299700000001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2129.299700000001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2446.539900000001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1900.376100000001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1900.376100000001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1916.317900000001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2416.317900000001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>442.803699999999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>243.064099999999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>173.064099999999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>243.064099999999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>247.285899999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2965.714100000001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2965.714100000001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>17007.32496288</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-976216.3454763999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-976202.6856403399</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-976205.6856403399</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-974016.0303403399</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-966793.1400487099</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-987661.91210086</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-987643.77332535</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-988328.37512535</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-987328.37512535</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-971985.91730942</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-977003.74740942</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-972604.29030942</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-981067.1303094199</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-986525.7210094199</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-989903.0243094199</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-989900.98260942</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-990133.3407094199</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-989800.5167094199</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-989800.5167094199</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-987325.2968094199</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-988573.7233094199</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-955859.3730094199</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-963358.1435094199</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-909854.3672094198</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
